--- a/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc30.xlsx
+++ b/EC1-ECG_Analysis/ecg_oversampling/safetyArtist/SMOTE_Augmented Results/SMOTE_Aug_cc30.xlsx
@@ -250,9 +250,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -263,6 +260,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -564,10 +564,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AN37"/>
+  <dimension ref="A1:AN38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AL9" sqref="AL9:AN38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1206,7 +1206,7 @@
         <f t="shared" si="7"/>
         <v>2</v>
       </c>
-      <c r="AI5" s="10" t="s">
+      <c r="AI5" s="9" t="s">
         <v>41</v>
       </c>
       <c r="AJ5" s="4">
@@ -1704,11 +1704,11 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL9" s="6" t="s">
+      <c r="AL9" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="AM9" s="6"/>
-      <c r="AN9" s="6"/>
+      <c r="AM9" s="10"/>
+      <c r="AN9" s="10"/>
     </row>
     <row r="10" spans="1:40">
       <c r="A10">
@@ -1829,13 +1829,13 @@
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="AL10" s="7" t="s">
+      <c r="AL10" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="AM10" s="7" t="s">
+      <c r="AM10" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="AN10" s="7" t="s">
+      <c r="AN10" s="6" t="s">
         <v>40</v>
       </c>
     </row>
@@ -1965,8 +1965,8 @@
         <f>COUNTIFS(AJ:AJ, AL11)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="8">
-        <f>AM11/(SUM(AM$11:AM$37))</f>
+      <c r="AN11" s="7">
+        <f>AM11/(SUM(AM$11:AM$38))</f>
         <v>0</v>
       </c>
     </row>
@@ -2093,11 +2093,11 @@
         <v>1</v>
       </c>
       <c r="AM12" s="5">
-        <f t="shared" ref="AM12:AM37" si="10">COUNTIFS(AJ:AJ, AL12)</f>
+        <f t="shared" ref="AM12:AM38" si="10">COUNTIFS(AJ:AJ, AL12)</f>
         <v>27</v>
       </c>
-      <c r="AN12" s="8">
-        <f t="shared" ref="AN12:AN37" si="11">AM12/(SUM(AM$11:AM$37))</f>
+      <c r="AN12" s="7">
+        <f t="shared" ref="AN12:AN38" si="11">AM12/(SUM(AM$11:AM$38))</f>
         <v>0.93103448275862066</v>
       </c>
     </row>
@@ -2227,7 +2227,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN13" s="8">
+      <c r="AN13" s="7">
         <f t="shared" si="11"/>
         <v>3.4482758620689655E-2</v>
       </c>
@@ -2358,7 +2358,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN14" s="8">
+      <c r="AN14" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2489,7 +2489,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN15" s="8">
+      <c r="AN15" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2620,7 +2620,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN16" s="8">
+      <c r="AN16" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2751,7 +2751,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN17" s="8">
+      <c r="AN17" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -2882,7 +2882,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN18" s="8">
+      <c r="AN18" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3013,7 +3013,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN19" s="8">
+      <c r="AN19" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3144,7 +3144,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN20" s="8">
+      <c r="AN20" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3275,7 +3275,7 @@
         <f t="shared" si="10"/>
         <v>1</v>
       </c>
-      <c r="AN21" s="8">
+      <c r="AN21" s="7">
         <f t="shared" si="11"/>
         <v>3.4482758620689655E-2</v>
       </c>
@@ -3406,7 +3406,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN22" s="8">
+      <c r="AN22" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3537,7 +3537,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN23" s="8">
+      <c r="AN23" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3668,7 +3668,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN24" s="8">
+      <c r="AN24" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3799,7 +3799,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN25" s="8">
+      <c r="AN25" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -3930,7 +3930,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN26" s="8">
+      <c r="AN26" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4061,7 +4061,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN27" s="8">
+      <c r="AN27" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4192,7 +4192,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN28" s="8">
+      <c r="AN28" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4323,7 +4323,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN29" s="8">
+      <c r="AN29" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4454,7 +4454,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN30" s="8">
+      <c r="AN30" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4470,7 +4470,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN31" s="8">
+      <c r="AN31" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4486,7 +4486,7 @@
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN32" s="8">
+      <c r="AN32" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4495,14 +4495,14 @@
       <c r="AH33" s="4"/>
       <c r="AI33" s="4"/>
       <c r="AJ33" s="4"/>
-      <c r="AL33" s="9">
+      <c r="AL33" s="8">
         <v>22</v>
       </c>
-      <c r="AM33" s="9">
+      <c r="AM33" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN33" s="8">
+      <c r="AN33" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4511,14 +4511,14 @@
       <c r="AH34" s="4"/>
       <c r="AI34" s="4"/>
       <c r="AJ34" s="4"/>
-      <c r="AL34" s="9">
+      <c r="AL34" s="8">
         <v>23</v>
       </c>
-      <c r="AM34" s="9">
+      <c r="AM34" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN34" s="8">
+      <c r="AN34" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4527,14 +4527,14 @@
       <c r="AH35" s="4"/>
       <c r="AI35" s="4"/>
       <c r="AJ35" s="4"/>
-      <c r="AL35" s="9">
+      <c r="AL35" s="8">
         <v>24</v>
       </c>
-      <c r="AM35" s="9">
+      <c r="AM35" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN35" s="8">
+      <c r="AN35" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4543,14 +4543,14 @@
       <c r="AH36" s="4"/>
       <c r="AI36" s="4"/>
       <c r="AJ36" s="4"/>
-      <c r="AL36" s="9">
+      <c r="AL36" s="8">
         <v>25</v>
       </c>
-      <c r="AM36" s="9">
+      <c r="AM36" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN36" s="8">
+      <c r="AN36" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
@@ -4559,14 +4559,27 @@
       <c r="AH37" s="4"/>
       <c r="AI37" s="4"/>
       <c r="AJ37" s="4"/>
-      <c r="AL37" s="9">
+      <c r="AL37" s="8">
         <v>26</v>
       </c>
-      <c r="AM37" s="9">
+      <c r="AM37" s="8">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="AN37" s="8">
+      <c r="AN37" s="7">
+        <f t="shared" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="34:40">
+      <c r="AL38" s="8">
+        <v>27</v>
+      </c>
+      <c r="AM38" s="8">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="AN38" s="7">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
